--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\科研\负荷预测\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github_projects\power_by_district\District-power\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23669D2F-D774-420B-9DB7-66823EC62425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B68E7-E7A3-4047-B9D8-2B73875F4DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$424</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="15">
   <si>
     <t>District</t>
   </si>
@@ -32,6 +35,39 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>Closest_Station</t>
+  </si>
+  <si>
+    <t>59211099999</t>
+  </si>
+  <si>
+    <t>59046099999</t>
+  </si>
+  <si>
+    <t>57957099999</t>
+  </si>
+  <si>
+    <t>59644099999</t>
+  </si>
+  <si>
+    <t>59254099999</t>
+  </si>
+  <si>
+    <t>59431099999</t>
+  </si>
+  <si>
+    <t>59634099999</t>
+  </si>
+  <si>
+    <t>59632099999</t>
+  </si>
+  <si>
+    <t>59023099999</t>
+  </si>
+  <si>
+    <t>59265099999</t>
   </si>
 </sst>
 </file>
@@ -402,15 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -423,8 +462,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -437,8 +479,11 @@
       <c r="D2">
         <v>9190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -451,8 +496,11 @@
       <c r="D3">
         <v>6080</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -465,8 +513,11 @@
       <c r="D4">
         <v>6080</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -479,8 +530,11 @@
       <c r="D5">
         <v>9190</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -493,8 +547,11 @@
       <c r="D6">
         <v>9190</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -507,8 +564,11 @@
       <c r="D7">
         <v>6080</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -521,8 +581,11 @@
       <c r="D8">
         <v>6080</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -535,8 +598,11 @@
       <c r="D9">
         <v>6080</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -549,8 +615,11 @@
       <c r="D10">
         <v>9190</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -563,8 +632,11 @@
       <c r="D11">
         <v>9190</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -577,8 +649,11 @@
       <c r="D12">
         <v>6080</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -591,8 +666,11 @@
       <c r="D13">
         <v>9190</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -605,8 +683,11 @@
       <c r="D14">
         <v>9190</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -619,8 +700,11 @@
       <c r="D15">
         <v>9190</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -633,8 +717,11 @@
       <c r="D16">
         <v>9190</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -647,8 +734,11 @@
       <c r="D17">
         <v>9190</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -661,8 +751,11 @@
       <c r="D18">
         <v>9190</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -675,8 +768,11 @@
       <c r="D19">
         <v>6080</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -689,8 +785,11 @@
       <c r="D20">
         <v>6080</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -703,8 +802,11 @@
       <c r="D21">
         <v>9190</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -717,8 +819,11 @@
       <c r="D22">
         <v>6080</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -731,8 +836,11 @@
       <c r="D23">
         <v>9190</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -745,8 +853,11 @@
       <c r="D24">
         <v>6080</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -759,8 +870,11 @@
       <c r="D25">
         <v>4460</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -773,8 +887,11 @@
       <c r="D26">
         <v>4460</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -787,8 +904,11 @@
       <c r="D27">
         <v>2860</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -801,8 +921,11 @@
       <c r="D28">
         <v>2060</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -815,8 +938,11 @@
       <c r="D29">
         <v>2060</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -829,8 +955,11 @@
       <c r="D30">
         <v>2860</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -843,8 +972,11 @@
       <c r="D31">
         <v>2060</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -857,8 +989,11 @@
       <c r="D32">
         <v>2860</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -871,8 +1006,11 @@
       <c r="D33">
         <v>2860</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -885,8 +1023,11 @@
       <c r="D34">
         <v>4460</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -899,8 +1040,11 @@
       <c r="D35">
         <v>4460</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -913,8 +1057,11 @@
       <c r="D36">
         <v>4460</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -927,8 +1074,11 @@
       <c r="D37">
         <v>800</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -941,8 +1091,11 @@
       <c r="D38">
         <v>4460</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -955,8 +1108,11 @@
       <c r="D39">
         <v>800</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -969,8 +1125,11 @@
       <c r="D40">
         <v>400</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -983,8 +1142,11 @@
       <c r="D41">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -997,8 +1159,11 @@
       <c r="D42">
         <v>800</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1011,8 +1176,11 @@
       <c r="D43">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1025,8 +1193,11 @@
       <c r="D44">
         <v>800</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1039,8 +1210,11 @@
       <c r="D45">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1053,8 +1227,11 @@
       <c r="D46">
         <v>500</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1067,8 +1244,11 @@
       <c r="D47">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1081,8 +1261,11 @@
       <c r="D48">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1095,8 +1278,11 @@
       <c r="D49">
         <v>3150</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1109,8 +1295,11 @@
       <c r="D50">
         <v>1200</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1123,8 +1312,11 @@
       <c r="D51">
         <v>6160</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1137,8 +1329,11 @@
       <c r="D52">
         <v>2390</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1151,8 +1346,11 @@
       <c r="D53">
         <v>2390</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1165,8 +1363,11 @@
       <c r="D54">
         <v>3150</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1179,8 +1380,11 @@
       <c r="D55">
         <v>6160</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1193,8 +1397,11 @@
       <c r="D56">
         <v>1200</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1207,8 +1414,11 @@
       <c r="D57">
         <v>2390</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1221,8 +1431,11 @@
       <c r="D58">
         <v>1130</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1235,8 +1448,11 @@
       <c r="D59">
         <v>800</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1249,8 +1465,11 @@
       <c r="D60">
         <v>6160</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1263,8 +1482,11 @@
       <c r="D61">
         <v>800</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1277,8 +1499,11 @@
       <c r="D62">
         <v>1130</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1291,8 +1516,11 @@
       <c r="D63">
         <v>1200</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1305,8 +1533,11 @@
       <c r="D64">
         <v>3150</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1319,8 +1550,11 @@
       <c r="D65">
         <v>6160</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1333,8 +1567,11 @@
       <c r="D66">
         <v>6160</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1347,8 +1584,11 @@
       <c r="D67">
         <v>6160</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1361,8 +1601,11 @@
       <c r="D68">
         <v>6160</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1375,8 +1618,11 @@
       <c r="D69">
         <v>6160</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1389,8 +1635,11 @@
       <c r="D70">
         <v>6160</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1403,8 +1652,11 @@
       <c r="D71">
         <v>2390</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1417,8 +1669,11 @@
       <c r="D72">
         <v>3150</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1431,8 +1686,11 @@
       <c r="D73">
         <v>6160</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -1445,8 +1703,11 @@
       <c r="D74">
         <v>3150</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1459,8 +1720,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1473,8 +1737,11 @@
       <c r="D76">
         <v>630</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1487,8 +1754,11 @@
       <c r="D77">
         <v>200</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1501,8 +1771,11 @@
       <c r="D78">
         <v>200</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1515,8 +1788,11 @@
       <c r="D79">
         <v>630</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1529,8 +1805,11 @@
       <c r="D80">
         <v>630</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1543,8 +1822,11 @@
       <c r="D81">
         <v>630</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1557,8 +1839,11 @@
       <c r="D82">
         <v>630</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1571,8 +1856,11 @@
       <c r="D83">
         <v>800</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1585,8 +1873,11 @@
       <c r="D84">
         <v>800</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -1599,8 +1890,11 @@
       <c r="D85">
         <v>800</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -1613,8 +1907,11 @@
       <c r="D86">
         <v>500</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1627,8 +1924,11 @@
       <c r="D87">
         <v>800</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1641,8 +1941,11 @@
       <c r="D88">
         <v>800</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1655,8 +1958,11 @@
       <c r="D89">
         <v>800</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -1669,8 +1975,11 @@
       <c r="D90">
         <v>800</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1683,8 +1992,11 @@
       <c r="D91">
         <v>800</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1697,8 +2009,11 @@
       <c r="D92">
         <v>800</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1711,8 +2026,11 @@
       <c r="D93">
         <v>1000</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1725,8 +2043,11 @@
       <c r="D94">
         <v>630</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1739,8 +2060,11 @@
       <c r="D95">
         <v>500</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -1753,8 +2077,11 @@
       <c r="D96">
         <v>800</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -1767,8 +2094,11 @@
       <c r="D97">
         <v>1000</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -1781,8 +2111,11 @@
       <c r="D98">
         <v>1000</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -1795,8 +2128,11 @@
       <c r="D99">
         <v>800</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -1809,8 +2145,11 @@
       <c r="D100">
         <v>800</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -1823,8 +2162,11 @@
       <c r="D101">
         <v>1000</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -1837,8 +2179,11 @@
       <c r="D102">
         <v>800</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -1851,8 +2196,11 @@
       <c r="D103">
         <v>1000</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -1865,8 +2213,11 @@
       <c r="D104">
         <v>1000</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -1879,8 +2230,11 @@
       <c r="D105">
         <v>800</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -1893,8 +2247,11 @@
       <c r="D106">
         <v>800</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1907,8 +2264,11 @@
       <c r="D107">
         <v>800</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -1921,8 +2281,11 @@
       <c r="D108">
         <v>800</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -1935,8 +2298,11 @@
       <c r="D109">
         <v>800</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -1949,8 +2315,11 @@
       <c r="D110">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -1963,8 +2332,11 @@
       <c r="D111">
         <v>800</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -1977,8 +2349,11 @@
       <c r="D112">
         <v>800</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -1991,8 +2366,11 @@
       <c r="D113">
         <v>800</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -2005,8 +2383,11 @@
       <c r="D114">
         <v>500</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -2019,8 +2400,11 @@
       <c r="D115">
         <v>500</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -2033,8 +2417,11 @@
       <c r="D116">
         <v>630</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -2047,8 +2434,11 @@
       <c r="D117">
         <v>800</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -2061,8 +2451,11 @@
       <c r="D118">
         <v>800</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -2075,8 +2468,11 @@
       <c r="D119">
         <v>630</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -2089,8 +2485,11 @@
       <c r="D120">
         <v>630</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -2103,8 +2502,11 @@
       <c r="D121">
         <v>800</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -2117,8 +2519,11 @@
       <c r="D122">
         <v>500</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -2131,8 +2536,11 @@
       <c r="D123">
         <v>500</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -2145,8 +2553,11 @@
       <c r="D124">
         <v>500</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -2159,8 +2570,11 @@
       <c r="D125">
         <v>630</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -2173,8 +2587,11 @@
       <c r="D126">
         <v>630</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -2187,8 +2604,11 @@
       <c r="D127">
         <v>800</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -2201,8 +2621,11 @@
       <c r="D128">
         <v>500</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -2215,8 +2638,11 @@
       <c r="D129">
         <v>630</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -2229,8 +2655,11 @@
       <c r="D130">
         <v>800</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -2243,8 +2672,11 @@
       <c r="D131">
         <v>630</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -2257,8 +2689,11 @@
       <c r="D132">
         <v>630</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -2271,8 +2706,11 @@
       <c r="D133">
         <v>630</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -2285,8 +2723,11 @@
       <c r="D134">
         <v>630</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -2299,8 +2740,11 @@
       <c r="D135">
         <v>800</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -2313,8 +2757,11 @@
       <c r="D136">
         <v>630</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -2327,8 +2774,11 @@
       <c r="D137">
         <v>630</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -2341,8 +2791,11 @@
       <c r="D138">
         <v>630</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -2355,8 +2808,11 @@
       <c r="D139">
         <v>800</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -2369,8 +2825,11 @@
       <c r="D140">
         <v>630</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -2383,8 +2842,11 @@
       <c r="D141">
         <v>630</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -2397,8 +2859,11 @@
       <c r="D142">
         <v>630</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -2411,8 +2876,11 @@
       <c r="D143">
         <v>630</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2425,8 +2893,11 @@
       <c r="D144">
         <v>630</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -2439,8 +2910,11 @@
       <c r="D145">
         <v>500</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -2453,8 +2927,11 @@
       <c r="D146">
         <v>630</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -2467,8 +2944,11 @@
       <c r="D147">
         <v>630</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -2481,8 +2961,11 @@
       <c r="D148">
         <v>630</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -2495,8 +2978,11 @@
       <c r="D149">
         <v>630</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -2509,8 +2995,11 @@
       <c r="D150">
         <v>630</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -2523,8 +3012,11 @@
       <c r="D151">
         <v>500</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5</v>
       </c>
@@ -2537,8 +3029,11 @@
       <c r="D152">
         <v>500</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -2551,8 +3046,11 @@
       <c r="D153">
         <v>1260</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5</v>
       </c>
@@ -2565,8 +3063,11 @@
       <c r="D154">
         <v>800</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -2579,8 +3080,11 @@
       <c r="D155">
         <v>630</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2593,8 +3097,11 @@
       <c r="D156">
         <v>3660</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5</v>
       </c>
@@ -2607,8 +3114,11 @@
       <c r="D157">
         <v>630</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5</v>
       </c>
@@ -2621,8 +3131,11 @@
       <c r="D158">
         <v>800</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -2635,8 +3148,11 @@
       <c r="D159">
         <v>800</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5</v>
       </c>
@@ -2649,8 +3165,11 @@
       <c r="D160">
         <v>630</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5</v>
       </c>
@@ -2663,8 +3182,11 @@
       <c r="D161">
         <v>1260</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -2677,8 +3199,11 @@
       <c r="D162">
         <v>800</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -2691,8 +3216,11 @@
       <c r="D163">
         <v>3660</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -2705,8 +3233,11 @@
       <c r="D164">
         <v>500</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
@@ -2719,8 +3250,11 @@
       <c r="D165">
         <v>4630</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -2733,8 +3267,11 @@
       <c r="D166">
         <v>2520</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5</v>
       </c>
@@ -2747,8 +3284,11 @@
       <c r="D167">
         <v>800</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2761,8 +3301,11 @@
       <c r="D168">
         <v>800</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -2775,8 +3318,11 @@
       <c r="D169">
         <v>2860</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -2789,8 +3335,11 @@
       <c r="D170">
         <v>630</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -2803,8 +3352,11 @@
       <c r="D171">
         <v>630</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5</v>
       </c>
@@ -2817,8 +3369,11 @@
       <c r="D172">
         <v>630</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -2831,8 +3386,11 @@
       <c r="D173">
         <v>630</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -2845,8 +3403,11 @@
       <c r="D174">
         <v>800</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5</v>
       </c>
@@ -2859,8 +3420,11 @@
       <c r="D175">
         <v>800</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5</v>
       </c>
@@ -2873,8 +3437,11 @@
       <c r="D176">
         <v>800</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -2887,8 +3454,11 @@
       <c r="D177">
         <v>800</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -2901,8 +3471,11 @@
       <c r="D178">
         <v>630</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -2915,8 +3488,11 @@
       <c r="D179">
         <v>800</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -2929,8 +3505,11 @@
       <c r="D180">
         <v>4630</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -2943,8 +3522,11 @@
       <c r="D181">
         <v>630</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -2957,8 +3539,11 @@
       <c r="D182">
         <v>4630</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -2971,8 +3556,11 @@
       <c r="D183">
         <v>630</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -2985,8 +3573,11 @@
       <c r="D184">
         <v>800</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5</v>
       </c>
@@ -2999,8 +3590,11 @@
       <c r="D185">
         <v>4410</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -3013,8 +3607,11 @@
       <c r="D186">
         <v>4410</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5</v>
       </c>
@@ -3027,8 +3624,11 @@
       <c r="D187">
         <v>800</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -3041,8 +3641,11 @@
       <c r="D188">
         <v>630</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5</v>
       </c>
@@ -3055,8 +3658,11 @@
       <c r="D189">
         <v>4410</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -3069,8 +3675,11 @@
       <c r="D190">
         <v>4410</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -3083,8 +3692,11 @@
       <c r="D191">
         <v>800</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3097,8 +3709,11 @@
       <c r="D192">
         <v>800</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5</v>
       </c>
@@ -3111,8 +3726,11 @@
       <c r="D193">
         <v>800</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5</v>
       </c>
@@ -3125,8 +3743,11 @@
       <c r="D194">
         <v>500</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -3139,8 +3760,11 @@
       <c r="D195">
         <v>630</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5</v>
       </c>
@@ -3153,8 +3777,11 @@
       <c r="D196">
         <v>800</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -3167,8 +3794,11 @@
       <c r="D197">
         <v>4410</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5</v>
       </c>
@@ -3181,8 +3811,11 @@
       <c r="D198">
         <v>800</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -3195,8 +3828,11 @@
       <c r="D199">
         <v>4410</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5</v>
       </c>
@@ -3209,8 +3845,11 @@
       <c r="D200">
         <v>800</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5</v>
       </c>
@@ -3223,8 +3862,11 @@
       <c r="D201">
         <v>800</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5</v>
       </c>
@@ -3237,8 +3879,11 @@
       <c r="D202">
         <v>4800</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5</v>
       </c>
@@ -3251,8 +3896,11 @@
       <c r="D203">
         <v>3200</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -3265,8 +3913,11 @@
       <c r="D204">
         <v>800</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5</v>
       </c>
@@ -3279,8 +3930,11 @@
       <c r="D205">
         <v>800</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -3293,8 +3947,11 @@
       <c r="D206">
         <v>800</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5</v>
       </c>
@@ -3307,8 +3964,11 @@
       <c r="D207">
         <v>800</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5</v>
       </c>
@@ -3321,8 +3981,11 @@
       <c r="D208">
         <v>800</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5</v>
       </c>
@@ -3335,8 +3998,11 @@
       <c r="D209">
         <v>800</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>6</v>
       </c>
@@ -3349,8 +4015,11 @@
       <c r="D210">
         <v>1000</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6</v>
       </c>
@@ -3363,8 +4032,11 @@
       <c r="D211">
         <v>800</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>6</v>
       </c>
@@ -3377,8 +4049,11 @@
       <c r="D212">
         <v>1250</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>6</v>
       </c>
@@ -3391,8 +4066,11 @@
       <c r="D213">
         <v>1250</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>6</v>
       </c>
@@ -3405,8 +4083,11 @@
       <c r="D214">
         <v>1001</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>6</v>
       </c>
@@ -3419,8 +4100,11 @@
       <c r="D215">
         <v>1250</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>6</v>
       </c>
@@ -3433,8 +4117,11 @@
       <c r="D216">
         <v>1250</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>6</v>
       </c>
@@ -3447,8 +4134,11 @@
       <c r="D217">
         <v>1250</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>6</v>
       </c>
@@ -3461,8 +4151,11 @@
       <c r="D218">
         <v>800</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>6</v>
       </c>
@@ -3475,8 +4168,11 @@
       <c r="D219">
         <v>800</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>6</v>
       </c>
@@ -3489,8 +4185,11 @@
       <c r="D220">
         <v>800</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>6</v>
       </c>
@@ -3503,8 +4202,11 @@
       <c r="D221">
         <v>1250</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>6</v>
       </c>
@@ -3517,8 +4219,11 @@
       <c r="D222">
         <v>1000</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>6</v>
       </c>
@@ -3531,8 +4236,11 @@
       <c r="D223">
         <v>800</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>6</v>
       </c>
@@ -3545,8 +4253,11 @@
       <c r="D224">
         <v>1251</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>6</v>
       </c>
@@ -3559,8 +4270,11 @@
       <c r="D225">
         <v>800</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>6</v>
       </c>
@@ -3573,8 +4287,11 @@
       <c r="D226">
         <v>1000</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>6</v>
       </c>
@@ -3587,8 +4304,11 @@
       <c r="D227">
         <v>630</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>6</v>
       </c>
@@ -3601,8 +4321,11 @@
       <c r="D228">
         <v>1000</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -3615,8 +4338,11 @@
       <c r="D229">
         <v>630</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>6</v>
       </c>
@@ -3629,8 +4355,11 @@
       <c r="D230">
         <v>629</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>6</v>
       </c>
@@ -3643,8 +4372,11 @@
       <c r="D231">
         <v>9370</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -3657,8 +4389,11 @@
       <c r="D232">
         <v>800</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>6</v>
       </c>
@@ -3671,8 +4406,11 @@
       <c r="D233">
         <v>630</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>6</v>
       </c>
@@ -3685,8 +4423,11 @@
       <c r="D234">
         <v>9370</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -3699,8 +4440,11 @@
       <c r="D235">
         <v>630</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>6</v>
       </c>
@@ -3713,8 +4457,11 @@
       <c r="D236">
         <v>630</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>6</v>
       </c>
@@ -3727,8 +4474,11 @@
       <c r="D237">
         <v>629</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>6</v>
       </c>
@@ -3741,8 +4491,11 @@
       <c r="D238">
         <v>630</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -3755,8 +4508,11 @@
       <c r="D239">
         <v>800</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>6</v>
       </c>
@@ -3769,8 +4525,11 @@
       <c r="D240">
         <v>630</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -3783,8 +4542,11 @@
       <c r="D241">
         <v>630</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -3797,8 +4559,11 @@
       <c r="D242">
         <v>500</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -3811,8 +4576,11 @@
       <c r="D243">
         <v>9370</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>6</v>
       </c>
@@ -3825,8 +4593,11 @@
       <c r="D244">
         <v>800</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -3839,8 +4610,11 @@
       <c r="D245">
         <v>9370</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6</v>
       </c>
@@ -3853,8 +4627,11 @@
       <c r="D246">
         <v>9370</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>6</v>
       </c>
@@ -3867,8 +4644,11 @@
       <c r="D247">
         <v>800</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6</v>
       </c>
@@ -3881,8 +4661,11 @@
       <c r="D248">
         <v>630</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>6</v>
       </c>
@@ -3895,8 +4678,11 @@
       <c r="D249">
         <v>800</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -3909,8 +4695,11 @@
       <c r="D250">
         <v>630</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6</v>
       </c>
@@ -3923,8 +4712,11 @@
       <c r="D251">
         <v>9370</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>6</v>
       </c>
@@ -3937,8 +4729,11 @@
       <c r="D252">
         <v>9370</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>6</v>
       </c>
@@ -3951,8 +4746,11 @@
       <c r="D253">
         <v>9370</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>6</v>
       </c>
@@ -3965,8 +4763,11 @@
       <c r="D254">
         <v>630</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>6</v>
       </c>
@@ -3979,8 +4780,11 @@
       <c r="D255">
         <v>800</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>6</v>
       </c>
@@ -3993,8 +4797,11 @@
       <c r="D256">
         <v>9370</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>6</v>
       </c>
@@ -4007,8 +4814,11 @@
       <c r="D257">
         <v>800</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6</v>
       </c>
@@ -4021,8 +4831,11 @@
       <c r="D258">
         <v>800</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -4035,8 +4848,11 @@
       <c r="D259">
         <v>1000</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>6</v>
       </c>
@@ -4049,8 +4865,11 @@
       <c r="D260">
         <v>630</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6</v>
       </c>
@@ -4063,8 +4882,11 @@
       <c r="D261">
         <v>800</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -4077,8 +4899,11 @@
       <c r="D262">
         <v>800</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -4091,8 +4916,11 @@
       <c r="D263">
         <v>800</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -4105,8 +4933,11 @@
       <c r="D264">
         <v>1000</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4119,8 +4950,11 @@
       <c r="D265">
         <v>800</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -4133,8 +4967,11 @@
       <c r="D266">
         <v>800</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -4147,8 +4984,11 @@
       <c r="D267">
         <v>800</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -4161,8 +5001,11 @@
       <c r="D268">
         <v>630</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -4175,8 +5018,11 @@
       <c r="D269">
         <v>800</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -4189,8 +5035,11 @@
       <c r="D270">
         <v>9370</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -4203,8 +5052,11 @@
       <c r="D271">
         <v>630</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
@@ -4217,8 +5069,11 @@
       <c r="D272">
         <v>800</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>6</v>
       </c>
@@ -4231,8 +5086,11 @@
       <c r="D273">
         <v>800</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -4245,8 +5103,11 @@
       <c r="D274">
         <v>9370</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>6</v>
       </c>
@@ -4259,8 +5120,11 @@
       <c r="D275">
         <v>630</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -4273,8 +5137,11 @@
       <c r="D276">
         <v>629</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -4287,8 +5154,11 @@
       <c r="D277">
         <v>9370</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6</v>
       </c>
@@ -4301,8 +5171,11 @@
       <c r="D278">
         <v>630</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -4315,8 +5188,11 @@
       <c r="D279">
         <v>630</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6</v>
       </c>
@@ -4329,8 +5205,11 @@
       <c r="D280">
         <v>800</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6</v>
       </c>
@@ -4343,8 +5222,11 @@
       <c r="D281">
         <v>630</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6</v>
       </c>
@@ -4357,8 +5239,11 @@
       <c r="D282">
         <v>1000</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6</v>
       </c>
@@ -4371,8 +5256,11 @@
       <c r="D283">
         <v>630</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6</v>
       </c>
@@ -4385,8 +5273,11 @@
       <c r="D284">
         <v>630</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6</v>
       </c>
@@ -4399,8 +5290,11 @@
       <c r="D285">
         <v>9370</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -4413,8 +5307,11 @@
       <c r="D286">
         <v>800</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
@@ -4427,8 +5324,11 @@
       <c r="D287">
         <v>800</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6</v>
       </c>
@@ -4441,8 +5341,11 @@
       <c r="D288">
         <v>630</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6</v>
       </c>
@@ -4455,8 +5358,11 @@
       <c r="D289">
         <v>800</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6</v>
       </c>
@@ -4469,8 +5375,11 @@
       <c r="D290">
         <v>9370</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6</v>
       </c>
@@ -4483,8 +5392,11 @@
       <c r="D291">
         <v>800</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>6</v>
       </c>
@@ -4497,8 +5409,11 @@
       <c r="D292">
         <v>630</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6</v>
       </c>
@@ -4511,8 +5426,11 @@
       <c r="D293">
         <v>800</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -4525,8 +5443,11 @@
       <c r="D294">
         <v>800</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -4539,8 +5460,11 @@
       <c r="D295">
         <v>630</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -4553,8 +5477,11 @@
       <c r="D296">
         <v>630</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>6</v>
       </c>
@@ -4567,8 +5494,11 @@
       <c r="D297">
         <v>1000</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6</v>
       </c>
@@ -4581,8 +5511,11 @@
       <c r="D298">
         <v>800</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6</v>
       </c>
@@ -4595,8 +5528,11 @@
       <c r="D299">
         <v>629</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>7</v>
       </c>
@@ -4609,8 +5545,11 @@
       <c r="D300">
         <v>1000</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>7</v>
       </c>
@@ -4623,8 +5562,11 @@
       <c r="D301">
         <v>1000</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>7</v>
       </c>
@@ -4637,8 +5579,11 @@
       <c r="D302">
         <v>1000</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>7</v>
       </c>
@@ -4651,8 +5596,11 @@
       <c r="D303">
         <v>1000</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -4665,8 +5613,11 @@
       <c r="D304">
         <v>1000</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>7</v>
       </c>
@@ -4679,8 +5630,11 @@
       <c r="D305">
         <v>1000</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>7</v>
       </c>
@@ -4693,8 +5647,11 @@
       <c r="D306">
         <v>800</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>7</v>
       </c>
@@ -4707,8 +5664,11 @@
       <c r="D307">
         <v>800</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>7</v>
       </c>
@@ -4721,8 +5681,11 @@
       <c r="D308">
         <v>1000</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7</v>
       </c>
@@ -4735,8 +5698,11 @@
       <c r="D309">
         <v>1000</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>7</v>
       </c>
@@ -4749,8 +5715,11 @@
       <c r="D310">
         <v>800</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>7</v>
       </c>
@@ -4763,8 +5732,11 @@
       <c r="D311">
         <v>800</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>7</v>
       </c>
@@ -4777,8 +5749,11 @@
       <c r="D312">
         <v>800</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>8</v>
       </c>
@@ -4791,8 +5766,11 @@
       <c r="D313">
         <v>800</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>8</v>
       </c>
@@ -4805,8 +5783,11 @@
       <c r="D314">
         <v>800</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8</v>
       </c>
@@ -4819,8 +5800,11 @@
       <c r="D315">
         <v>800</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>8</v>
       </c>
@@ -4833,8 +5817,11 @@
       <c r="D316">
         <v>800</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>8</v>
       </c>
@@ -4847,8 +5834,11 @@
       <c r="D317">
         <v>800</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>8</v>
       </c>
@@ -4861,8 +5851,11 @@
       <c r="D318">
         <v>800</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>8</v>
       </c>
@@ -4875,8 +5868,11 @@
       <c r="D319">
         <v>400</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>8</v>
       </c>
@@ -4889,8 +5885,11 @@
       <c r="D320">
         <v>800</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -4903,8 +5902,11 @@
       <c r="D321">
         <v>630</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8</v>
       </c>
@@ -4917,8 +5919,11 @@
       <c r="D322">
         <v>630</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -4931,8 +5936,11 @@
       <c r="D323">
         <v>800</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8</v>
       </c>
@@ -4945,8 +5953,11 @@
       <c r="D324">
         <v>800</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>8</v>
       </c>
@@ -4959,8 +5970,11 @@
       <c r="D325">
         <v>630</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>8</v>
       </c>
@@ -4973,8 +5987,11 @@
       <c r="D326">
         <v>800</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>8</v>
       </c>
@@ -4987,8 +6004,11 @@
       <c r="D327">
         <v>800</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8</v>
       </c>
@@ -5001,8 +6021,11 @@
       <c r="D328">
         <v>630</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>8</v>
       </c>
@@ -5015,8 +6038,11 @@
       <c r="D329">
         <v>630</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>8</v>
       </c>
@@ -5029,8 +6055,11 @@
       <c r="D330">
         <v>630</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8</v>
       </c>
@@ -5043,8 +6072,11 @@
       <c r="D331">
         <v>630</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8</v>
       </c>
@@ -5057,8 +6089,11 @@
       <c r="D332">
         <v>2400</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8</v>
       </c>
@@ -5071,8 +6106,11 @@
       <c r="D333">
         <v>800</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8</v>
       </c>
@@ -5085,8 +6123,11 @@
       <c r="D334">
         <v>630</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8</v>
       </c>
@@ -5099,8 +6140,11 @@
       <c r="D335">
         <v>800</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>8</v>
       </c>
@@ -5113,8 +6157,11 @@
       <c r="D336">
         <v>800</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>8</v>
       </c>
@@ -5127,8 +6174,11 @@
       <c r="D337">
         <v>630</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>8</v>
       </c>
@@ -5141,8 +6191,11 @@
       <c r="D338">
         <v>630</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>8</v>
       </c>
@@ -5155,8 +6208,11 @@
       <c r="D339">
         <v>630</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>8</v>
       </c>
@@ -5169,8 +6225,11 @@
       <c r="D340">
         <v>800</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>8</v>
       </c>
@@ -5183,8 +6242,11 @@
       <c r="D341">
         <v>630</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>8</v>
       </c>
@@ -5197,8 +6259,11 @@
       <c r="D342">
         <v>630</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>8</v>
       </c>
@@ -5211,8 +6276,11 @@
       <c r="D343">
         <v>630</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>8</v>
       </c>
@@ -5225,8 +6293,11 @@
       <c r="D344">
         <v>800</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>8</v>
       </c>
@@ -5239,8 +6310,11 @@
       <c r="D345">
         <v>500</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>8</v>
       </c>
@@ -5253,8 +6327,11 @@
       <c r="D346">
         <v>630</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>8</v>
       </c>
@@ -5267,8 +6344,11 @@
       <c r="D347">
         <v>630</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>8</v>
       </c>
@@ -5281,8 +6361,11 @@
       <c r="D348">
         <v>630</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>8</v>
       </c>
@@ -5295,8 +6378,11 @@
       <c r="D349">
         <v>630</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>8</v>
       </c>
@@ -5309,8 +6395,11 @@
       <c r="D350">
         <v>500</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8</v>
       </c>
@@ -5323,8 +6412,11 @@
       <c r="D351">
         <v>630</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>8</v>
       </c>
@@ -5337,8 +6429,11 @@
       <c r="D352">
         <v>630</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>8</v>
       </c>
@@ -5351,8 +6446,11 @@
       <c r="D353">
         <v>630</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>8</v>
       </c>
@@ -5365,8 +6463,11 @@
       <c r="D354">
         <v>1250</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>8</v>
       </c>
@@ -5379,8 +6480,11 @@
       <c r="D355">
         <v>630</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>8</v>
       </c>
@@ -5393,8 +6497,11 @@
       <c r="D356">
         <v>500</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8</v>
       </c>
@@ -5407,8 +6514,11 @@
       <c r="D357">
         <v>800</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>8</v>
       </c>
@@ -5421,8 +6531,11 @@
       <c r="D358">
         <v>630</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>8</v>
       </c>
@@ -5435,8 +6548,11 @@
       <c r="D359">
         <v>630</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8</v>
       </c>
@@ -5449,8 +6565,11 @@
       <c r="D360">
         <v>800</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>8</v>
       </c>
@@ -5463,8 +6582,11 @@
       <c r="D361">
         <v>630</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>8</v>
       </c>
@@ -5477,8 +6599,11 @@
       <c r="D362">
         <v>630</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>8</v>
       </c>
@@ -5491,8 +6616,11 @@
       <c r="D363">
         <v>630</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>8</v>
       </c>
@@ -5505,8 +6633,11 @@
       <c r="D364">
         <v>500</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>8</v>
       </c>
@@ -5519,8 +6650,11 @@
       <c r="D365">
         <v>1250</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>8</v>
       </c>
@@ -5533,8 +6667,11 @@
       <c r="D366">
         <v>800</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>8</v>
       </c>
@@ -5547,8 +6684,11 @@
       <c r="D367">
         <v>800</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>8</v>
       </c>
@@ -5561,8 +6701,11 @@
       <c r="D368">
         <v>630</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>8</v>
       </c>
@@ -5575,8 +6718,11 @@
       <c r="D369">
         <v>500</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>8</v>
       </c>
@@ -5589,8 +6735,11 @@
       <c r="D370">
         <v>630</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>8</v>
       </c>
@@ -5603,8 +6752,11 @@
       <c r="D371">
         <v>1250</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>8</v>
       </c>
@@ -5617,8 +6769,11 @@
       <c r="D372">
         <v>500</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>8</v>
       </c>
@@ -5631,8 +6786,11 @@
       <c r="D373">
         <v>800</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>8</v>
       </c>
@@ -5645,8 +6803,11 @@
       <c r="D374">
         <v>630</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8</v>
       </c>
@@ -5659,8 +6820,11 @@
       <c r="D375">
         <v>630</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>8</v>
       </c>
@@ -5673,8 +6837,11 @@
       <c r="D376">
         <v>500</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>8</v>
       </c>
@@ -5687,8 +6854,11 @@
       <c r="D377">
         <v>500</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8</v>
       </c>
@@ -5701,8 +6871,11 @@
       <c r="D378">
         <v>630</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>8</v>
       </c>
@@ -5715,8 +6888,11 @@
       <c r="D379">
         <v>2400</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>8</v>
       </c>
@@ -5729,8 +6905,11 @@
       <c r="D380">
         <v>400</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>8</v>
       </c>
@@ -5743,8 +6922,11 @@
       <c r="D381">
         <v>630</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8</v>
       </c>
@@ -5757,8 +6939,11 @@
       <c r="D382">
         <v>630</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>8</v>
       </c>
@@ -5771,8 +6956,11 @@
       <c r="D383">
         <v>630</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8</v>
       </c>
@@ -5785,8 +6973,11 @@
       <c r="D384">
         <v>630</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8</v>
       </c>
@@ -5799,8 +6990,11 @@
       <c r="D385">
         <v>800</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>8</v>
       </c>
@@ -5813,8 +7007,11 @@
       <c r="D386">
         <v>800</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -5827,8 +7024,11 @@
       <c r="D387">
         <v>1000</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>8</v>
       </c>
@@ -5841,8 +7041,11 @@
       <c r="D388">
         <v>800</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8</v>
       </c>
@@ -5855,8 +7058,11 @@
       <c r="D389">
         <v>630</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -5869,8 +7075,11 @@
       <c r="D390">
         <v>630</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8</v>
       </c>
@@ -5883,8 +7092,11 @@
       <c r="D391">
         <v>800</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>9</v>
       </c>
@@ -5897,8 +7109,11 @@
       <c r="D392">
         <v>800</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9</v>
       </c>
@@ -5911,8 +7126,11 @@
       <c r="D393">
         <v>800</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>9</v>
       </c>
@@ -5925,8 +7143,11 @@
       <c r="D394">
         <v>800</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9</v>
       </c>
@@ -5939,8 +7160,11 @@
       <c r="D395">
         <v>800</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>9</v>
       </c>
@@ -5953,8 +7177,11 @@
       <c r="D396">
         <v>800</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -5967,8 +7194,11 @@
       <c r="D397">
         <v>800</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>9</v>
       </c>
@@ -5981,8 +7211,11 @@
       <c r="D398">
         <v>800</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>9</v>
       </c>
@@ -5995,8 +7228,11 @@
       <c r="D399">
         <v>800</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>9</v>
       </c>
@@ -6009,8 +7245,11 @@
       <c r="D400">
         <v>800</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>9</v>
       </c>
@@ -6023,8 +7262,11 @@
       <c r="D401">
         <v>800</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>9</v>
       </c>
@@ -6037,8 +7279,11 @@
       <c r="D402">
         <v>800</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>9</v>
       </c>
@@ -6051,8 +7296,11 @@
       <c r="D403">
         <v>800</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>9</v>
       </c>
@@ -6065,8 +7313,11 @@
       <c r="D404">
         <v>800</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>9</v>
       </c>
@@ -6079,8 +7330,11 @@
       <c r="D405">
         <v>800</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9</v>
       </c>
@@ -6093,8 +7347,11 @@
       <c r="D406">
         <v>800</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>9</v>
       </c>
@@ -6107,8 +7364,11 @@
       <c r="D407">
         <v>800</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>9</v>
       </c>
@@ -6121,8 +7381,11 @@
       <c r="D408">
         <v>800</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>9</v>
       </c>
@@ -6135,8 +7398,11 @@
       <c r="D409">
         <v>800</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>9</v>
       </c>
@@ -6149,8 +7415,11 @@
       <c r="D410">
         <v>800</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>9</v>
       </c>
@@ -6163,8 +7432,11 @@
       <c r="D411">
         <v>800</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>9</v>
       </c>
@@ -6177,8 +7449,11 @@
       <c r="D412">
         <v>800</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>9</v>
       </c>
@@ -6191,8 +7466,11 @@
       <c r="D413">
         <v>800</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>9</v>
       </c>
@@ -6205,8 +7483,11 @@
       <c r="D414">
         <v>800</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>9</v>
       </c>
@@ -6219,8 +7500,11 @@
       <c r="D415">
         <v>800</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>9</v>
       </c>
@@ -6233,8 +7517,11 @@
       <c r="D416">
         <v>800</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>9</v>
       </c>
@@ -6247,8 +7534,11 @@
       <c r="D417">
         <v>800</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9</v>
       </c>
@@ -6261,8 +7551,11 @@
       <c r="D418">
         <v>800</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>9</v>
       </c>
@@ -6275,8 +7568,11 @@
       <c r="D419">
         <v>800</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>9</v>
       </c>
@@ -6289,8 +7585,11 @@
       <c r="D420">
         <v>800</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>9</v>
       </c>
@@ -6303,8 +7602,11 @@
       <c r="D421">
         <v>1600</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>9</v>
       </c>
@@ -6317,8 +7619,11 @@
       <c r="D422">
         <v>1600</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>9</v>
       </c>
@@ -6331,8 +7636,11 @@
       <c r="D423">
         <v>1600</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>9</v>
       </c>
@@ -6344,6 +7652,9 @@
       </c>
       <c r="D424">
         <v>1600</v>
+      </c>
+      <c r="E424" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github_projects\power_by_district\District-power\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B68E7-E7A3-4047-B9D8-2B73875F4DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B0344B-D546-4668-A0AC-DEF947F919DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="14">
   <si>
     <t>District</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>59431099999</t>
-  </si>
-  <si>
-    <t>59634099999</t>
   </si>
   <si>
     <t>59632099999</t>
@@ -441,7 +438,7 @@
   <dimension ref="A1:E424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4015,8 +4012,8 @@
       <c r="D210">
         <v>1000</v>
       </c>
-      <c r="E210" t="s">
-        <v>11</v>
+      <c r="E210">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,8 +4029,8 @@
       <c r="D211">
         <v>800</v>
       </c>
-      <c r="E211" t="s">
-        <v>11</v>
+      <c r="E211">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4049,8 +4046,8 @@
       <c r="D212">
         <v>1250</v>
       </c>
-      <c r="E212" t="s">
-        <v>11</v>
+      <c r="E212">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4066,8 +4063,8 @@
       <c r="D213">
         <v>1250</v>
       </c>
-      <c r="E213" t="s">
-        <v>11</v>
+      <c r="E213">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,8 +4080,8 @@
       <c r="D214">
         <v>1001</v>
       </c>
-      <c r="E214" t="s">
-        <v>11</v>
+      <c r="E214">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4100,8 +4097,8 @@
       <c r="D215">
         <v>1250</v>
       </c>
-      <c r="E215" t="s">
-        <v>11</v>
+      <c r="E215">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,8 +4114,8 @@
       <c r="D216">
         <v>1250</v>
       </c>
-      <c r="E216" t="s">
-        <v>11</v>
+      <c r="E216">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,8 +4131,8 @@
       <c r="D217">
         <v>1250</v>
       </c>
-      <c r="E217" t="s">
-        <v>11</v>
+      <c r="E217">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4151,8 +4148,8 @@
       <c r="D218">
         <v>800</v>
       </c>
-      <c r="E218" t="s">
-        <v>11</v>
+      <c r="E218">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,8 +4165,8 @@
       <c r="D219">
         <v>800</v>
       </c>
-      <c r="E219" t="s">
-        <v>11</v>
+      <c r="E219">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,8 +4182,8 @@
       <c r="D220">
         <v>800</v>
       </c>
-      <c r="E220" t="s">
-        <v>11</v>
+      <c r="E220">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4202,8 +4199,8 @@
       <c r="D221">
         <v>1250</v>
       </c>
-      <c r="E221" t="s">
-        <v>11</v>
+      <c r="E221">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,8 +4216,8 @@
       <c r="D222">
         <v>1000</v>
       </c>
-      <c r="E222" t="s">
-        <v>11</v>
+      <c r="E222">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4236,8 +4233,8 @@
       <c r="D223">
         <v>800</v>
       </c>
-      <c r="E223" t="s">
-        <v>11</v>
+      <c r="E223">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4253,8 +4250,8 @@
       <c r="D224">
         <v>1251</v>
       </c>
-      <c r="E224" t="s">
-        <v>11</v>
+      <c r="E224">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,8 +4267,8 @@
       <c r="D225">
         <v>800</v>
       </c>
-      <c r="E225" t="s">
-        <v>11</v>
+      <c r="E225">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,8 +4284,8 @@
       <c r="D226">
         <v>1000</v>
       </c>
-      <c r="E226" t="s">
-        <v>11</v>
+      <c r="E226">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4304,8 +4301,8 @@
       <c r="D227">
         <v>630</v>
       </c>
-      <c r="E227" t="s">
-        <v>11</v>
+      <c r="E227">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,8 +4318,8 @@
       <c r="D228">
         <v>1000</v>
       </c>
-      <c r="E228" t="s">
-        <v>11</v>
+      <c r="E228">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4338,8 +4335,8 @@
       <c r="D229">
         <v>630</v>
       </c>
-      <c r="E229" t="s">
-        <v>11</v>
+      <c r="E229">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4355,8 +4352,8 @@
       <c r="D230">
         <v>629</v>
       </c>
-      <c r="E230" t="s">
-        <v>11</v>
+      <c r="E230">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4372,8 +4369,8 @@
       <c r="D231">
         <v>9370</v>
       </c>
-      <c r="E231" t="s">
-        <v>11</v>
+      <c r="E231">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4389,8 +4386,8 @@
       <c r="D232">
         <v>800</v>
       </c>
-      <c r="E232" t="s">
-        <v>11</v>
+      <c r="E232">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,8 +4403,8 @@
       <c r="D233">
         <v>630</v>
       </c>
-      <c r="E233" t="s">
-        <v>11</v>
+      <c r="E233">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -4423,8 +4420,8 @@
       <c r="D234">
         <v>9370</v>
       </c>
-      <c r="E234" t="s">
-        <v>11</v>
+      <c r="E234">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -4440,8 +4437,8 @@
       <c r="D235">
         <v>630</v>
       </c>
-      <c r="E235" t="s">
-        <v>11</v>
+      <c r="E235">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -4457,8 +4454,8 @@
       <c r="D236">
         <v>630</v>
       </c>
-      <c r="E236" t="s">
-        <v>11</v>
+      <c r="E236">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,8 +4471,8 @@
       <c r="D237">
         <v>629</v>
       </c>
-      <c r="E237" t="s">
-        <v>11</v>
+      <c r="E237">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,8 +4488,8 @@
       <c r="D238">
         <v>630</v>
       </c>
-      <c r="E238" t="s">
-        <v>11</v>
+      <c r="E238">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,8 +4505,8 @@
       <c r="D239">
         <v>800</v>
       </c>
-      <c r="E239" t="s">
-        <v>11</v>
+      <c r="E239">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -4525,8 +4522,8 @@
       <c r="D240">
         <v>630</v>
       </c>
-      <c r="E240" t="s">
-        <v>11</v>
+      <c r="E240">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,8 +4539,8 @@
       <c r="D241">
         <v>630</v>
       </c>
-      <c r="E241" t="s">
-        <v>11</v>
+      <c r="E241">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,8 +4556,8 @@
       <c r="D242">
         <v>500</v>
       </c>
-      <c r="E242" t="s">
-        <v>11</v>
+      <c r="E242">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,8 +4573,8 @@
       <c r="D243">
         <v>9370</v>
       </c>
-      <c r="E243" t="s">
-        <v>11</v>
+      <c r="E243">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,8 +4590,8 @@
       <c r="D244">
         <v>800</v>
       </c>
-      <c r="E244" t="s">
-        <v>11</v>
+      <c r="E244">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,8 +4607,8 @@
       <c r="D245">
         <v>9370</v>
       </c>
-      <c r="E245" t="s">
-        <v>11</v>
+      <c r="E245">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -4627,8 +4624,8 @@
       <c r="D246">
         <v>9370</v>
       </c>
-      <c r="E246" t="s">
-        <v>11</v>
+      <c r="E246">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,8 +4641,8 @@
       <c r="D247">
         <v>800</v>
       </c>
-      <c r="E247" t="s">
-        <v>11</v>
+      <c r="E247">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -4661,8 +4658,8 @@
       <c r="D248">
         <v>630</v>
       </c>
-      <c r="E248" t="s">
-        <v>11</v>
+      <c r="E248">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -4678,8 +4675,8 @@
       <c r="D249">
         <v>800</v>
       </c>
-      <c r="E249" t="s">
-        <v>11</v>
+      <c r="E249">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,8 +4692,8 @@
       <c r="D250">
         <v>630</v>
       </c>
-      <c r="E250" t="s">
-        <v>11</v>
+      <c r="E250">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,8 +4709,8 @@
       <c r="D251">
         <v>9370</v>
       </c>
-      <c r="E251" t="s">
-        <v>11</v>
+      <c r="E251">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,8 +4726,8 @@
       <c r="D252">
         <v>9370</v>
       </c>
-      <c r="E252" t="s">
-        <v>11</v>
+      <c r="E252">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -4746,8 +4743,8 @@
       <c r="D253">
         <v>9370</v>
       </c>
-      <c r="E253" t="s">
-        <v>11</v>
+      <c r="E253">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -4763,8 +4760,8 @@
       <c r="D254">
         <v>630</v>
       </c>
-      <c r="E254" t="s">
-        <v>11</v>
+      <c r="E254">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -4780,8 +4777,8 @@
       <c r="D255">
         <v>800</v>
       </c>
-      <c r="E255" t="s">
-        <v>11</v>
+      <c r="E255">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,8 +4794,8 @@
       <c r="D256">
         <v>9370</v>
       </c>
-      <c r="E256" t="s">
-        <v>11</v>
+      <c r="E256">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -4814,8 +4811,8 @@
       <c r="D257">
         <v>800</v>
       </c>
-      <c r="E257" t="s">
-        <v>11</v>
+      <c r="E257">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,8 +4828,8 @@
       <c r="D258">
         <v>800</v>
       </c>
-      <c r="E258" t="s">
-        <v>11</v>
+      <c r="E258">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -4848,8 +4845,8 @@
       <c r="D259">
         <v>1000</v>
       </c>
-      <c r="E259" t="s">
-        <v>11</v>
+      <c r="E259">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -4865,8 +4862,8 @@
       <c r="D260">
         <v>630</v>
       </c>
-      <c r="E260" t="s">
-        <v>11</v>
+      <c r="E260">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -4882,8 +4879,8 @@
       <c r="D261">
         <v>800</v>
       </c>
-      <c r="E261" t="s">
-        <v>11</v>
+      <c r="E261">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -4899,8 +4896,8 @@
       <c r="D262">
         <v>800</v>
       </c>
-      <c r="E262" t="s">
-        <v>11</v>
+      <c r="E262">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -4916,8 +4913,8 @@
       <c r="D263">
         <v>800</v>
       </c>
-      <c r="E263" t="s">
-        <v>11</v>
+      <c r="E263">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -4933,8 +4930,8 @@
       <c r="D264">
         <v>1000</v>
       </c>
-      <c r="E264" t="s">
-        <v>11</v>
+      <c r="E264">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,8 +4947,8 @@
       <c r="D265">
         <v>800</v>
       </c>
-      <c r="E265" t="s">
-        <v>11</v>
+      <c r="E265">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,8 +4964,8 @@
       <c r="D266">
         <v>800</v>
       </c>
-      <c r="E266" t="s">
-        <v>11</v>
+      <c r="E266">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -4984,8 +4981,8 @@
       <c r="D267">
         <v>800</v>
       </c>
-      <c r="E267" t="s">
-        <v>11</v>
+      <c r="E267">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5001,8 +4998,8 @@
       <c r="D268">
         <v>630</v>
       </c>
-      <c r="E268" t="s">
-        <v>11</v>
+      <c r="E268">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5018,8 +5015,8 @@
       <c r="D269">
         <v>800</v>
       </c>
-      <c r="E269" t="s">
-        <v>11</v>
+      <c r="E269">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,8 +5032,8 @@
       <c r="D270">
         <v>9370</v>
       </c>
-      <c r="E270" t="s">
-        <v>11</v>
+      <c r="E270">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,8 +5049,8 @@
       <c r="D271">
         <v>630</v>
       </c>
-      <c r="E271" t="s">
-        <v>11</v>
+      <c r="E271">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -5069,8 +5066,8 @@
       <c r="D272">
         <v>800</v>
       </c>
-      <c r="E272" t="s">
-        <v>11</v>
+      <c r="E272">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,8 +5083,8 @@
       <c r="D273">
         <v>800</v>
       </c>
-      <c r="E273" t="s">
-        <v>11</v>
+      <c r="E273">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,8 +5100,8 @@
       <c r="D274">
         <v>9370</v>
       </c>
-      <c r="E274" t="s">
-        <v>11</v>
+      <c r="E274">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5120,8 +5117,8 @@
       <c r="D275">
         <v>630</v>
       </c>
-      <c r="E275" t="s">
-        <v>11</v>
+      <c r="E275">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,8 +5134,8 @@
       <c r="D276">
         <v>629</v>
       </c>
-      <c r="E276" t="s">
-        <v>11</v>
+      <c r="E276">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5154,8 +5151,8 @@
       <c r="D277">
         <v>9370</v>
       </c>
-      <c r="E277" t="s">
-        <v>11</v>
+      <c r="E277">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5171,8 +5168,8 @@
       <c r="D278">
         <v>630</v>
       </c>
-      <c r="E278" t="s">
-        <v>11</v>
+      <c r="E278">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,8 +5185,8 @@
       <c r="D279">
         <v>630</v>
       </c>
-      <c r="E279" t="s">
-        <v>11</v>
+      <c r="E279">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,8 +5202,8 @@
       <c r="D280">
         <v>800</v>
       </c>
-      <c r="E280" t="s">
-        <v>11</v>
+      <c r="E280">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,8 +5219,8 @@
       <c r="D281">
         <v>630</v>
       </c>
-      <c r="E281" t="s">
-        <v>11</v>
+      <c r="E281">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,8 +5236,8 @@
       <c r="D282">
         <v>1000</v>
       </c>
-      <c r="E282" t="s">
-        <v>11</v>
+      <c r="E282">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,8 +5253,8 @@
       <c r="D283">
         <v>630</v>
       </c>
-      <c r="E283" t="s">
-        <v>11</v>
+      <c r="E283">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,8 +5270,8 @@
       <c r="D284">
         <v>630</v>
       </c>
-      <c r="E284" t="s">
-        <v>11</v>
+      <c r="E284">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5290,8 +5287,8 @@
       <c r="D285">
         <v>9370</v>
       </c>
-      <c r="E285" t="s">
-        <v>11</v>
+      <c r="E285">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,8 +5304,8 @@
       <c r="D286">
         <v>800</v>
       </c>
-      <c r="E286" t="s">
-        <v>11</v>
+      <c r="E286">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5324,8 +5321,8 @@
       <c r="D287">
         <v>800</v>
       </c>
-      <c r="E287" t="s">
-        <v>11</v>
+      <c r="E287">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,8 +5338,8 @@
       <c r="D288">
         <v>630</v>
       </c>
-      <c r="E288" t="s">
-        <v>11</v>
+      <c r="E288">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,8 +5355,8 @@
       <c r="D289">
         <v>800</v>
       </c>
-      <c r="E289" t="s">
-        <v>11</v>
+      <c r="E289">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5375,8 +5372,8 @@
       <c r="D290">
         <v>9370</v>
       </c>
-      <c r="E290" t="s">
-        <v>11</v>
+      <c r="E290">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5392,8 +5389,8 @@
       <c r="D291">
         <v>800</v>
       </c>
-      <c r="E291" t="s">
-        <v>11</v>
+      <c r="E291">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,8 +5406,8 @@
       <c r="D292">
         <v>630</v>
       </c>
-      <c r="E292" t="s">
-        <v>11</v>
+      <c r="E292">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5426,8 +5423,8 @@
       <c r="D293">
         <v>800</v>
       </c>
-      <c r="E293" t="s">
-        <v>11</v>
+      <c r="E293">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,8 +5440,8 @@
       <c r="D294">
         <v>800</v>
       </c>
-      <c r="E294" t="s">
-        <v>11</v>
+      <c r="E294">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,8 +5457,8 @@
       <c r="D295">
         <v>630</v>
       </c>
-      <c r="E295" t="s">
-        <v>11</v>
+      <c r="E295">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5477,8 +5474,8 @@
       <c r="D296">
         <v>630</v>
       </c>
-      <c r="E296" t="s">
-        <v>11</v>
+      <c r="E296">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -5494,8 +5491,8 @@
       <c r="D297">
         <v>1000</v>
       </c>
-      <c r="E297" t="s">
-        <v>11</v>
+      <c r="E297">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,8 +5508,8 @@
       <c r="D298">
         <v>800</v>
       </c>
-      <c r="E298" t="s">
-        <v>11</v>
+      <c r="E298">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -5528,8 +5525,8 @@
       <c r="D299">
         <v>629</v>
       </c>
-      <c r="E299" t="s">
-        <v>11</v>
+      <c r="E299">
+        <v>59632099999</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,7 +5543,7 @@
         <v>1000</v>
       </c>
       <c r="E300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -5563,7 +5560,7 @@
         <v>1000</v>
       </c>
       <c r="E301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -5580,7 +5577,7 @@
         <v>1000</v>
       </c>
       <c r="E302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,7 +5594,7 @@
         <v>1000</v>
       </c>
       <c r="E303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,7 +5611,7 @@
         <v>1000</v>
       </c>
       <c r="E304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,7 +5628,7 @@
         <v>1000</v>
       </c>
       <c r="E305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -5648,7 +5645,7 @@
         <v>800</v>
       </c>
       <c r="E306" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -5665,7 +5662,7 @@
         <v>800</v>
       </c>
       <c r="E307" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -5682,7 +5679,7 @@
         <v>1000</v>
       </c>
       <c r="E308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -5699,7 +5696,7 @@
         <v>1000</v>
       </c>
       <c r="E309" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -5716,7 +5713,7 @@
         <v>800</v>
       </c>
       <c r="E310" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -5733,7 +5730,7 @@
         <v>800</v>
       </c>
       <c r="E311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -5750,7 +5747,7 @@
         <v>800</v>
       </c>
       <c r="E312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -5767,7 +5764,7 @@
         <v>800</v>
       </c>
       <c r="E313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -5784,7 +5781,7 @@
         <v>800</v>
       </c>
       <c r="E314" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -5801,7 +5798,7 @@
         <v>800</v>
       </c>
       <c r="E315" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -5818,7 +5815,7 @@
         <v>800</v>
       </c>
       <c r="E316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -5835,7 +5832,7 @@
         <v>800</v>
       </c>
       <c r="E317" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -5852,7 +5849,7 @@
         <v>800</v>
       </c>
       <c r="E318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,7 +5866,7 @@
         <v>400</v>
       </c>
       <c r="E319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -5886,7 +5883,7 @@
         <v>800</v>
       </c>
       <c r="E320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,7 +5900,7 @@
         <v>630</v>
       </c>
       <c r="E321" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -5920,7 +5917,7 @@
         <v>630</v>
       </c>
       <c r="E322" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>800</v>
       </c>
       <c r="E323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -5954,7 +5951,7 @@
         <v>800</v>
       </c>
       <c r="E324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -5971,7 +5968,7 @@
         <v>630</v>
       </c>
       <c r="E325" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -5988,7 +5985,7 @@
         <v>800</v>
       </c>
       <c r="E326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -6005,7 +6002,7 @@
         <v>800</v>
       </c>
       <c r="E327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6022,7 +6019,7 @@
         <v>630</v>
       </c>
       <c r="E328" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,7 +6036,7 @@
         <v>630</v>
       </c>
       <c r="E329" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6056,7 +6053,7 @@
         <v>630</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -6073,7 +6070,7 @@
         <v>630</v>
       </c>
       <c r="E331" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6090,7 +6087,7 @@
         <v>2400</v>
       </c>
       <c r="E332" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,7 +6104,7 @@
         <v>800</v>
       </c>
       <c r="E333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6124,7 +6121,7 @@
         <v>630</v>
       </c>
       <c r="E334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,7 +6138,7 @@
         <v>800</v>
       </c>
       <c r="E335" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6158,7 +6155,7 @@
         <v>800</v>
       </c>
       <c r="E336" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6175,7 +6172,7 @@
         <v>630</v>
       </c>
       <c r="E337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6192,7 +6189,7 @@
         <v>630</v>
       </c>
       <c r="E338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6209,7 +6206,7 @@
         <v>630</v>
       </c>
       <c r="E339" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -6226,7 +6223,7 @@
         <v>800</v>
       </c>
       <c r="E340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6243,7 +6240,7 @@
         <v>630</v>
       </c>
       <c r="E341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,7 +6257,7 @@
         <v>630</v>
       </c>
       <c r="E342" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,7 +6274,7 @@
         <v>630</v>
       </c>
       <c r="E343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -6294,7 +6291,7 @@
         <v>800</v>
       </c>
       <c r="E344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,7 +6308,7 @@
         <v>500</v>
       </c>
       <c r="E345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6328,7 +6325,7 @@
         <v>630</v>
       </c>
       <c r="E346" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -6345,7 +6342,7 @@
         <v>630</v>
       </c>
       <c r="E347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,7 +6359,7 @@
         <v>630</v>
       </c>
       <c r="E348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -6379,7 +6376,7 @@
         <v>630</v>
       </c>
       <c r="E349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -6396,7 +6393,7 @@
         <v>500</v>
       </c>
       <c r="E350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -6413,7 +6410,7 @@
         <v>630</v>
       </c>
       <c r="E351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -6430,7 +6427,7 @@
         <v>630</v>
       </c>
       <c r="E352" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -6447,7 +6444,7 @@
         <v>630</v>
       </c>
       <c r="E353" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -6464,7 +6461,7 @@
         <v>1250</v>
       </c>
       <c r="E354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -6481,7 +6478,7 @@
         <v>630</v>
       </c>
       <c r="E355" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -6498,7 +6495,7 @@
         <v>500</v>
       </c>
       <c r="E356" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,7 +6512,7 @@
         <v>800</v>
       </c>
       <c r="E357" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -6532,7 +6529,7 @@
         <v>630</v>
       </c>
       <c r="E358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -6549,7 +6546,7 @@
         <v>630</v>
       </c>
       <c r="E359" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -6566,7 +6563,7 @@
         <v>800</v>
       </c>
       <c r="E360" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -6583,7 +6580,7 @@
         <v>630</v>
       </c>
       <c r="E361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -6600,7 +6597,7 @@
         <v>630</v>
       </c>
       <c r="E362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -6617,7 +6614,7 @@
         <v>630</v>
       </c>
       <c r="E363" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -6634,7 +6631,7 @@
         <v>500</v>
       </c>
       <c r="E364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -6651,7 +6648,7 @@
         <v>1250</v>
       </c>
       <c r="E365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -6668,7 +6665,7 @@
         <v>800</v>
       </c>
       <c r="E366" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -6685,7 +6682,7 @@
         <v>800</v>
       </c>
       <c r="E367" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -6702,7 +6699,7 @@
         <v>630</v>
       </c>
       <c r="E368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -6719,7 +6716,7 @@
         <v>500</v>
       </c>
       <c r="E369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -6736,7 +6733,7 @@
         <v>630</v>
       </c>
       <c r="E370" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -6753,7 +6750,7 @@
         <v>1250</v>
       </c>
       <c r="E371" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -6770,7 +6767,7 @@
         <v>500</v>
       </c>
       <c r="E372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -6787,7 +6784,7 @@
         <v>800</v>
       </c>
       <c r="E373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -6804,7 +6801,7 @@
         <v>630</v>
       </c>
       <c r="E374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -6821,7 +6818,7 @@
         <v>630</v>
       </c>
       <c r="E375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -6838,7 +6835,7 @@
         <v>500</v>
       </c>
       <c r="E376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -6855,7 +6852,7 @@
         <v>500</v>
       </c>
       <c r="E377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -6872,7 +6869,7 @@
         <v>630</v>
       </c>
       <c r="E378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -6889,7 +6886,7 @@
         <v>2400</v>
       </c>
       <c r="E379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -6906,7 +6903,7 @@
         <v>400</v>
       </c>
       <c r="E380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -6923,7 +6920,7 @@
         <v>630</v>
       </c>
       <c r="E381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -6940,7 +6937,7 @@
         <v>630</v>
       </c>
       <c r="E382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -6957,7 +6954,7 @@
         <v>630</v>
       </c>
       <c r="E383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -6974,7 +6971,7 @@
         <v>630</v>
       </c>
       <c r="E384" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -6991,7 +6988,7 @@
         <v>800</v>
       </c>
       <c r="E385" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -7008,7 +7005,7 @@
         <v>800</v>
       </c>
       <c r="E386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,7 +7022,7 @@
         <v>1000</v>
       </c>
       <c r="E387" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,7 +7039,7 @@
         <v>800</v>
       </c>
       <c r="E388" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -7059,7 +7056,7 @@
         <v>630</v>
       </c>
       <c r="E389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -7076,7 +7073,7 @@
         <v>630</v>
       </c>
       <c r="E390" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -7093,7 +7090,7 @@
         <v>800</v>
       </c>
       <c r="E391" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -7110,7 +7107,7 @@
         <v>800</v>
       </c>
       <c r="E392" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,7 +7124,7 @@
         <v>800</v>
       </c>
       <c r="E393" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -7144,7 +7141,7 @@
         <v>800</v>
       </c>
       <c r="E394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -7161,7 +7158,7 @@
         <v>800</v>
       </c>
       <c r="E395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,7 +7175,7 @@
         <v>800</v>
       </c>
       <c r="E396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -7195,7 +7192,7 @@
         <v>800</v>
       </c>
       <c r="E397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -7212,7 +7209,7 @@
         <v>800</v>
       </c>
       <c r="E398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,7 +7226,7 @@
         <v>800</v>
       </c>
       <c r="E399" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -7246,7 +7243,7 @@
         <v>800</v>
       </c>
       <c r="E400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -7263,7 +7260,7 @@
         <v>800</v>
       </c>
       <c r="E401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -7280,7 +7277,7 @@
         <v>800</v>
       </c>
       <c r="E402" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -7297,7 +7294,7 @@
         <v>800</v>
       </c>
       <c r="E403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -7314,7 +7311,7 @@
         <v>800</v>
       </c>
       <c r="E404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -7331,7 +7328,7 @@
         <v>800</v>
       </c>
       <c r="E405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -7348,7 +7345,7 @@
         <v>800</v>
       </c>
       <c r="E406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -7365,7 +7362,7 @@
         <v>800</v>
       </c>
       <c r="E407" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -7382,7 +7379,7 @@
         <v>800</v>
       </c>
       <c r="E408" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -7399,7 +7396,7 @@
         <v>800</v>
       </c>
       <c r="E409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -7416,7 +7413,7 @@
         <v>800</v>
       </c>
       <c r="E410" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -7433,7 +7430,7 @@
         <v>800</v>
       </c>
       <c r="E411" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -7450,7 +7447,7 @@
         <v>800</v>
       </c>
       <c r="E412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -7467,7 +7464,7 @@
         <v>800</v>
       </c>
       <c r="E413" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -7484,7 +7481,7 @@
         <v>800</v>
       </c>
       <c r="E414" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,7 +7498,7 @@
         <v>800</v>
       </c>
       <c r="E415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -7518,7 +7515,7 @@
         <v>800</v>
       </c>
       <c r="E416" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -7535,7 +7532,7 @@
         <v>800</v>
       </c>
       <c r="E417" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -7552,7 +7549,7 @@
         <v>800</v>
       </c>
       <c r="E418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -7569,7 +7566,7 @@
         <v>800</v>
       </c>
       <c r="E419" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -7586,7 +7583,7 @@
         <v>800</v>
       </c>
       <c r="E420" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -7603,7 +7600,7 @@
         <v>1600</v>
       </c>
       <c r="E421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -7620,7 +7617,7 @@
         <v>1600</v>
       </c>
       <c r="E422" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -7637,7 +7634,7 @@
         <v>1600</v>
       </c>
       <c r="E423" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -7654,7 +7651,7 @@
         <v>1600</v>
       </c>
       <c r="E424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\github_projects\power_by_district\District-power\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B0344B-D546-4668-A0AC-DEF947F919DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F17FB-4266-40BB-BC5E-9790C6840684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$424</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$424</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="15">
   <si>
     <t>District</t>
   </si>
@@ -66,12 +66,16 @@
   <si>
     <t>59265099999</t>
   </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +96,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,13 +135,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -435,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E424"/>
+  <dimension ref="A1:F424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -446,7 +471,7 @@
     <col min="5" max="5" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -462,8 +487,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -480,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -497,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -514,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -531,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -548,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -565,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -582,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -599,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -616,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -633,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -650,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -667,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -684,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -701,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -718,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -735,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -752,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -769,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -786,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -803,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -820,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -837,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -854,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -871,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -888,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -904,8 +932,11 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -921,8 +952,11 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -938,8 +972,11 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -955,8 +992,11 @@
       <c r="E30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -972,8 +1012,11 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -989,8 +1032,11 @@
       <c r="E32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1006,8 +1052,11 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1024,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1041,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1058,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1074,8 +1123,11 @@
       <c r="E37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1092,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1109,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1126,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1143,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1160,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1177,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1194,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1211,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1228,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1245,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1262,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1279,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1296,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1330,7 +1382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1347,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1364,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1381,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1398,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1415,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1432,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1449,7 +1501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1466,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1483,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1500,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1517,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1533,8 +1585,11 @@
       <c r="E64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1551,7 +1606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1568,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1585,7 +1640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1602,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1619,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1636,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1653,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1669,8 +1724,11 @@
       <c r="E72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1687,7 +1745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -1704,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1721,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1738,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1755,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1772,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1789,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2894,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -2911,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -2928,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -2945,7 +3003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -2962,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -2979,7 +3037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -2996,7 +3054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -3013,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5</v>
       </c>
@@ -3030,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -3047,7 +3105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5</v>
       </c>
@@ -3064,7 +3122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -3081,7 +3139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -3098,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5</v>
       </c>
@@ -3115,7 +3173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5</v>
       </c>
@@ -3132,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5</v>
       </c>
@@ -3148,8 +3206,11 @@
       <c r="E159" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5</v>
       </c>
@@ -3166,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5</v>
       </c>
@@ -3183,7 +3244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -3199,8 +3260,11 @@
       <c r="E162" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -3217,7 +3281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -3234,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
@@ -3251,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -3268,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5</v>
       </c>
@@ -3284,8 +3348,11 @@
       <c r="E167" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -3302,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -3319,7 +3386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -3336,7 +3403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -3353,7 +3420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5</v>
       </c>
@@ -3370,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -3387,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -3404,7 +3471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5</v>
       </c>
@@ -3421,7 +3488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5</v>
       </c>
@@ -4254,7 +4321,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>6</v>
       </c>
@@ -4271,7 +4338,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>6</v>
       </c>
@@ -4288,7 +4355,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>6</v>
       </c>
@@ -4305,7 +4372,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>6</v>
       </c>
@@ -4322,7 +4389,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -4339,7 +4406,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>6</v>
       </c>
@@ -4356,7 +4423,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>6</v>
       </c>
@@ -4373,7 +4440,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -4390,7 +4457,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>6</v>
       </c>
@@ -4407,7 +4474,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>6</v>
       </c>
@@ -4424,7 +4491,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -4441,7 +4508,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>6</v>
       </c>
@@ -4458,7 +4525,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>6</v>
       </c>
@@ -4475,7 +4542,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>6</v>
       </c>
@@ -4492,7 +4559,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -4508,8 +4575,11 @@
       <c r="E239">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>6</v>
       </c>
@@ -4526,7 +4596,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -4543,7 +4613,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -4559,8 +4629,11 @@
       <c r="E242">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -4577,7 +4650,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>6</v>
       </c>
@@ -4594,7 +4667,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -4611,7 +4684,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6</v>
       </c>
@@ -4628,7 +4701,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>6</v>
       </c>
@@ -4645,7 +4718,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6</v>
       </c>
@@ -4662,7 +4735,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>6</v>
       </c>
@@ -4679,7 +4752,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -4696,7 +4769,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6</v>
       </c>
@@ -4713,7 +4786,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>6</v>
       </c>
@@ -4730,7 +4803,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>6</v>
       </c>
@@ -4747,7 +4820,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>6</v>
       </c>
@@ -4764,7 +4837,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>6</v>
       </c>
@@ -4780,8 +4853,11 @@
       <c r="E255">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>6</v>
       </c>
@@ -4798,7 +4874,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>6</v>
       </c>
@@ -4815,7 +4891,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6</v>
       </c>
@@ -4832,7 +4908,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -4849,7 +4925,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>6</v>
       </c>
@@ -4866,7 +4942,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6</v>
       </c>
@@ -4883,7 +4959,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -4900,7 +4976,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -4916,8 +4992,11 @@
       <c r="E263">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -4934,7 +5013,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4950,8 +5029,11 @@
       <c r="E265">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -4968,7 +5050,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -4984,8 +5066,11 @@
       <c r="E267">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -5002,7 +5087,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -5019,7 +5104,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -5036,7 +5121,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -5053,7 +5138,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
@@ -5070,7 +5155,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>6</v>
       </c>
@@ -5087,7 +5172,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -5104,7 +5189,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>6</v>
       </c>
@@ -5121,7 +5206,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -5138,7 +5223,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -5155,7 +5240,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6</v>
       </c>
@@ -5172,7 +5257,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -5189,7 +5274,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6</v>
       </c>
@@ -5206,7 +5291,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6</v>
       </c>
@@ -5223,7 +5308,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6</v>
       </c>
@@ -5239,8 +5324,11 @@
       <c r="E282">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6</v>
       </c>
@@ -5257,7 +5345,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6</v>
       </c>
@@ -5274,7 +5362,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6</v>
       </c>
@@ -5291,7 +5379,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -5307,8 +5395,11 @@
       <c r="E286">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
@@ -5324,8 +5415,11 @@
       <c r="E287">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6</v>
       </c>
@@ -5342,7 +5436,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6</v>
       </c>
@@ -5359,7 +5453,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6</v>
       </c>
@@ -5376,7 +5470,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6</v>
       </c>
@@ -5392,8 +5486,11 @@
       <c r="E291">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>6</v>
       </c>
@@ -5410,7 +5507,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6</v>
       </c>
@@ -5427,7 +5524,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -5444,7 +5541,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -5461,7 +5558,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -5478,7 +5575,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>6</v>
       </c>
@@ -5494,8 +5591,11 @@
       <c r="E297">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6</v>
       </c>
@@ -5511,8 +5611,11 @@
       <c r="E298">
         <v>59632099999</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6</v>
       </c>
@@ -5529,7 +5632,7 @@
         <v>59632099999</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>7</v>
       </c>
@@ -5542,11 +5645,11 @@
       <c r="D300">
         <v>1000</v>
       </c>
-      <c r="E300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>59632099999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>7</v>
       </c>
@@ -5563,7 +5666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>7</v>
       </c>
@@ -5580,7 +5683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>7</v>
       </c>
@@ -5597,7 +5700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -5886,7 +5989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -5903,7 +6006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>8</v>
       </c>
@@ -5920,7 +6023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -5937,7 +6040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>8</v>
       </c>
@@ -5954,7 +6057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>8</v>
       </c>
@@ -5971,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>8</v>
       </c>
@@ -5988,7 +6091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>8</v>
       </c>
@@ -6005,7 +6108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8</v>
       </c>
@@ -6021,8 +6124,11 @@
       <c r="E328" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>8</v>
       </c>
@@ -6038,8 +6144,11 @@
       <c r="E329" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>8</v>
       </c>
@@ -6056,7 +6165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8</v>
       </c>
@@ -6072,8 +6181,11 @@
       <c r="E331" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8</v>
       </c>
@@ -6089,8 +6201,11 @@
       <c r="E332" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>8</v>
       </c>
@@ -6107,7 +6222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8</v>
       </c>
@@ -6124,7 +6239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8</v>
       </c>
@@ -6141,7 +6256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>8</v>
       </c>
@@ -6158,7 +6273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>8</v>
       </c>
@@ -6174,8 +6289,11 @@
       <c r="E337" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>8</v>
       </c>
@@ -6191,8 +6309,11 @@
       <c r="E338" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>8</v>
       </c>
@@ -6209,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>8</v>
       </c>
@@ -6226,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>8</v>
       </c>
@@ -6242,8 +6363,11 @@
       <c r="E341" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>8</v>
       </c>
@@ -6259,8 +6383,11 @@
       <c r="E342" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>8</v>
       </c>
@@ -6276,8 +6403,11 @@
       <c r="E343" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>8</v>
       </c>
@@ -6294,7 +6424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>8</v>
       </c>
@@ -6311,7 +6441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>8</v>
       </c>
@@ -6327,8 +6457,11 @@
       <c r="E346" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>8</v>
       </c>
@@ -6344,8 +6477,11 @@
       <c r="E347" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>8</v>
       </c>
@@ -6361,8 +6497,11 @@
       <c r="E348" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>8</v>
       </c>
@@ -6379,7 +6518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>8</v>
       </c>
@@ -6396,7 +6535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8</v>
       </c>
@@ -6412,8 +6551,11 @@
       <c r="E351" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>8</v>
       </c>
@@ -6429,8 +6571,11 @@
       <c r="E352" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>8</v>
       </c>
@@ -6447,7 +6592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>8</v>
       </c>
@@ -6464,7 +6609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>8</v>
       </c>
@@ -6481,7 +6626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>8</v>
       </c>
@@ -6498,7 +6643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8</v>
       </c>
@@ -6515,7 +6660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>8</v>
       </c>
@@ -6532,7 +6677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>8</v>
       </c>
@@ -6549,7 +6694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>8</v>
       </c>
@@ -6566,7 +6711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>8</v>
       </c>
@@ -6582,8 +6727,11 @@
       <c r="E361" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>8</v>
       </c>
@@ -6599,8 +6747,11 @@
       <c r="E362" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>8</v>
       </c>
@@ -6616,8 +6767,11 @@
       <c r="E363" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>8</v>
       </c>
@@ -6634,7 +6788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>8</v>
       </c>
@@ -6651,7 +6805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>8</v>
       </c>
@@ -6668,7 +6822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>8</v>
       </c>
@@ -6685,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>8</v>
       </c>
@@ -6701,8 +6855,11 @@
       <c r="E368" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>8</v>
       </c>
@@ -6719,7 +6876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>8</v>
       </c>
@@ -6736,7 +6893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>8</v>
       </c>
@@ -6753,7 +6910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>8</v>
       </c>
@@ -6769,8 +6926,11 @@
       <c r="E372" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>8</v>
       </c>
@@ -6787,7 +6947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>8</v>
       </c>
@@ -6804,7 +6964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8</v>
       </c>
@@ -6821,7 +6981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>8</v>
       </c>
@@ -6838,7 +6998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>8</v>
       </c>
@@ -6854,8 +7014,11 @@
       <c r="E377" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8</v>
       </c>
@@ -6871,8 +7034,11 @@
       <c r="E378" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>8</v>
       </c>
@@ -6888,8 +7054,11 @@
       <c r="E379" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>8</v>
       </c>
@@ -6905,8 +7074,11 @@
       <c r="E380" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>8</v>
       </c>
@@ -6922,8 +7094,11 @@
       <c r="E381" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8</v>
       </c>
@@ -6939,8 +7114,11 @@
       <c r="E382" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>8</v>
       </c>
@@ -6957,7 +7135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8</v>
       </c>
@@ -6973,8 +7151,11 @@
       <c r="E384" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8</v>
       </c>
@@ -6990,8 +7171,11 @@
       <c r="E385" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>8</v>
       </c>
@@ -7008,7 +7192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -7025,7 +7209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>8</v>
       </c>
@@ -7041,8 +7225,11 @@
       <c r="E388" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8</v>
       </c>
@@ -7059,7 +7246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -7075,8 +7262,11 @@
       <c r="E390" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8</v>
       </c>
@@ -7093,7 +7283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>9</v>
       </c>
@@ -7110,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9</v>
       </c>
@@ -7127,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>9</v>
       </c>
@@ -7144,7 +7334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9</v>
       </c>
@@ -7161,7 +7351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>9</v>
       </c>
@@ -7178,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>9</v>
       </c>
@@ -7195,7 +7385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>9</v>
       </c>
@@ -7212,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>9</v>
       </c>
@@ -7229,7 +7419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>9</v>
       </c>
